--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/9 VERIFICACION DE DECLARACIONES DE IMPUESTOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/9 VERIFICACION DE DECLARACIONES DE IMPUESTOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49837B01-9010-44A4-A7DD-F34F641B92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -87,9 +82,6 @@
     <t xml:space="preserve">                         Forma de Pago </t>
   </si>
   <si>
-    <t xml:space="preserve">   Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
     <t>Elaboro:</t>
   </si>
   <si>
@@ -114,16 +106,19 @@
     <t xml:space="preserve">                Supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">         Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>R-8</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -397,9 +391,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -436,6 +427,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,7 +468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -831,11 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,132 +855,139 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="P4" s="33" t="s">
-        <v>28</v>
+      <c r="P4" s="31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="O7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="O7" s="20" t="s">
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="O8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="O8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="22"/>
+      <c r="G9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="O9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="9" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="14" t="s">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1289,23 +1299,23 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
@@ -1383,14 +1393,14 @@
       <c r="N40" s="4"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>24</v>
+      <c r="A48" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="J48" s="24" t="s">
-        <v>24</v>
+      <c r="J48" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1398,15 +1408,21 @@
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="24"/>
+      <c r="L49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
